--- a/unity-business-innovation/src/main/resources/template/suggestion.xlsx
+++ b/unity-business-innovation/src/main/resources/template/suggestion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qinhuan/Documents/jkWorkspace/innovationpublish-api/unity-business-innovation/src/main/resources/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BFDF0E-43F6-4C47-83B0-5999B46669A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2B60A6-2986-3B4A-9ED3-C31229EB109E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="1560" windowWidth="28240" windowHeight="17440" xr2:uid="{3792454A-560D-2844-808A-BE8389129DD9}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -75,19 +75,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
+      <sz val="20"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑 Bold"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="22"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="等线 (正文)"/>
-      <family val="3"/>
+      <name val="微软雅黑 Bold"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -148,14 +152,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -475,7 +479,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -485,21 +489,21 @@
     <col min="3" max="3" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="36" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="30" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="48" customHeight="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
     </row>

--- a/unity-business-innovation/src/main/resources/template/suggestion.xlsx
+++ b/unity-business-innovation/src/main/resources/template/suggestion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qinhuan/Documents/jkWorkspace/innovationpublish-api/unity-business-innovation/src/main/resources/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2B60A6-2986-3B4A-9ED3-C31229EB109E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84E992C-EB51-D94A-A617-80C07B656F8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="1560" windowWidth="28240" windowHeight="17440" xr2:uid="{3792454A-560D-2844-808A-BE8389129DD9}"/>
   </bookViews>
@@ -131,9 +131,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -152,14 +158,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -479,7 +485,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -490,20 +496,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
